--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -8004,220 +8004,220 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26" t="s">
+        <v>91</v>
+      </c>
+      <c r="W26" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP26" t="s">
         <v>132</v>
       </c>
-      <c r="K26" t="s">
+      <c r="AQ26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV26" t="s">
         <v>132</v>
       </c>
-      <c r="L26" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" t="s">
-        <v>88</v>
-      </c>
-      <c r="O26" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>90</v>
-      </c>
-      <c r="R26" t="s">
-        <v>90</v>
-      </c>
-      <c r="S26" t="s">
-        <v>90</v>
-      </c>
-      <c r="T26" t="s">
-        <v>90</v>
-      </c>
-      <c r="U26" t="s">
-        <v>88</v>
-      </c>
-      <c r="V26" t="s">
-        <v>88</v>
-      </c>
-      <c r="W26" t="s">
-        <v>87</v>
-      </c>
-      <c r="X26" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AW26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX26" t="s">
         <v>132</v>
       </c>
-      <c r="AA26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>88</v>
-      </c>
       <c r="AY26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AZ26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BA26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BB26" t="s">
         <v>90</v>
       </c>
       <c r="BC26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BD26" t="s">
         <v>90</v>
       </c>
       <c r="BE26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BF26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BG26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BH26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BI26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BJ26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BK26" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="BL26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BM26" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="BN26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BO26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BP26" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="BQ26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BR26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BS26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BT26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BU26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BV26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BW26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BX26" t="s">
         <v>133</v>
@@ -8229,19 +8229,19 @@
         <v>133</v>
       </c>
       <c r="CA26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CB26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CC26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CD26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CE26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CF26" t="s">
         <v>132</v>
@@ -9273,221 +9273,221 @@
       <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" t="s">
-        <v>91</v>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" t="s">
-        <v>91</v>
+        <v>132</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P31" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>91</v>
-      </c>
-      <c r="R31" t="s">
-        <v>91</v>
-      </c>
-      <c r="S31" t="s">
-        <v>91</v>
-      </c>
-      <c r="T31" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" t="s">
-        <v>91</v>
-      </c>
-      <c r="V31" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="W31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="Z31" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AA31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AB31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC31" t="s">
         <v>91</v>
       </c>
       <c r="AD31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AE31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AF31" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>91</v>
+        <v>132</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="AI31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AJ31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AK31" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AP31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP31" t="s">
         <v>132</v>
       </c>
-      <c r="AQ31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BJ31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BO31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>91</v>
-      </c>
       <c r="BQ31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BS31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BT31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BU31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BX31" s="1" t="s">
         <v>133</v>
@@ -9499,19 +9499,19 @@
         <v>133</v>
       </c>
       <c r="CA31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CB31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CC31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CE31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CF31" t="s">
         <v>132</v>
@@ -24532,10 +24532,10 @@
         <v>91</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L91" t="s">
         <v>91</v>
@@ -24547,7 +24547,7 @@
         <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P91" t="s">
         <v>91</v>
@@ -24571,13 +24571,13 @@
         <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z91" t="s">
         <v>91</v>
@@ -24586,13 +24586,13 @@
         <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE91" t="s">
         <v>91</v>
@@ -24601,7 +24601,7 @@
         <v>91</v>
       </c>
       <c r="AG91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AH91" t="s">
         <v>91</v>
@@ -24610,7 +24610,7 @@
         <v>91</v>
       </c>
       <c r="AJ91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AK91" t="s">
         <v>91</v>
@@ -24825,10 +24825,10 @@
         <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="X92" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="Y92" t="s">
         <v>132</v>
@@ -24843,142 +24843,142 @@
         <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO92" t="s">
         <v>132</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AP92" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ92" t="s">
         <v>132</v>
       </c>
-      <c r="AE92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL92" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN92" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO92" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP92" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ92" t="s">
-        <v>87</v>
-      </c>
       <c r="AR92" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AS92" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT92" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AU92" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AV92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AW92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="AX92" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="AZ92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BA92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BC92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BD92" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="BE92" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="BF92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BG92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BH92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BI92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BJ92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BK92" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BL92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BM92" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BN92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BO92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BP92" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="BQ92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BR92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BS92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BT92" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BU92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BV92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BW92" s="1" t="s">
         <v>89</v>
@@ -24987,28 +24987,28 @@
         <v>89</v>
       </c>
       <c r="BY92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BZ92" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="CA92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CB92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CC92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CD92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CE92" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CF92" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
@@ -26603,10 +26603,10 @@
         <v>91</v>
       </c>
       <c r="W99" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="X99" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="Y99" t="s">
         <v>132</v>
@@ -26621,142 +26621,142 @@
         <v>91</v>
       </c>
       <c r="AC99" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO99" t="s">
         <v>132</v>
       </c>
-      <c r="AD99" t="s">
+      <c r="AP99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ99" t="s">
         <v>132</v>
       </c>
-      <c r="AE99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM99" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO99" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ99" t="s">
-        <v>87</v>
-      </c>
       <c r="AR99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AS99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT99" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AU99" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="AV99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AW99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="AX99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="AZ99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BA99" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BC99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BD99" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="BE99" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="BF99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BG99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BH99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BI99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BJ99" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BK99" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BL99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BM99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BN99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BO99" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BP99" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="BQ99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BR99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BS99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BT99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BU99" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BV99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BW99" s="1" t="s">
         <v>89</v>
@@ -26765,28 +26765,28 @@
         <v>89</v>
       </c>
       <c r="BY99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="BZ99" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="CA99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CB99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CC99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CD99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CE99" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CF99" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
@@ -32804,7 +32804,7 @@
         <v>88</v>
       </c>
       <c r="BF123" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BG123" s="1" t="s">
         <v>88</v>
@@ -32813,7 +32813,7 @@
         <v>88</v>
       </c>
       <c r="BI123" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BJ123" s="1" t="s">
         <v>88</v>
@@ -34582,7 +34582,7 @@
         <v>88</v>
       </c>
       <c r="BF130" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BG130" s="1" t="s">
         <v>88</v>
@@ -34591,7 +34591,7 @@
         <v>88</v>
       </c>
       <c r="BI130" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BJ130" s="1" t="s">
         <v>88</v>
@@ -37630,7 +37630,7 @@
         <v>88</v>
       </c>
       <c r="BF142" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BG142" s="1" t="s">
         <v>88</v>
@@ -37639,7 +37639,7 @@
         <v>88</v>
       </c>
       <c r="BI142" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BJ142" s="1" t="s">
         <v>88</v>
@@ -38625,7 +38625,7 @@
         <v>131</v>
       </c>
       <c r="AY146" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AZ146" s="1" t="s">
         <v>90</v>
@@ -38652,10 +38652,10 @@
         <v>131</v>
       </c>
       <c r="BH146" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BI146" s="1" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="BJ146" s="1" t="s">
         <v>131</v>
@@ -38664,43 +38664,43 @@
         <v>131</v>
       </c>
       <c r="BL146" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BM146" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BN146" s="1" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="BO146" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BP146" s="1" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="BQ146" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BR146" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="BS146" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BT146" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BU146" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BV146" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BW146" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BX146" s="1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="BY146" s="1" t="s">
         <v>89</v>
@@ -38709,13 +38709,13 @@
         <v>91</v>
       </c>
       <c r="CA146" s="1" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="CB146" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CC146" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="CD146" s="1" t="s">
         <v>89</v>
@@ -38724,7 +38724,7 @@
         <v>90</v>
       </c>
       <c r="CF146" s="1" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147">
@@ -39414,13 +39414,13 @@
         <v>131</v>
       </c>
       <c r="BH149" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI149" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BJ149" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="BK149" s="1" t="s">
         <v>131</v>
@@ -39608,22 +39608,22 @@
         <v>89</v>
       </c>
       <c r="AN150" s="1" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="AO150" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AP150" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AQ150" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="AS150" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="AT150" t="s">
         <v>326</v>
@@ -39635,7 +39635,7 @@
         <v>87</v>
       </c>
       <c r="AW150" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AX150" s="1" t="s">
         <v>88</v>
@@ -39650,7 +39650,7 @@
         <v>89</v>
       </c>
       <c r="BB150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC150" s="1" t="s">
         <v>89</v>
@@ -39659,7 +39659,7 @@
         <v>87</v>
       </c>
       <c r="BE150" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="BF150" s="1" t="s">
         <v>89</v>
@@ -39671,13 +39671,13 @@
         <v>132</v>
       </c>
       <c r="BI150" s="1" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="BJ150" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BK150" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="BL150" t="s">
         <v>326</v>
@@ -39710,7 +39710,7 @@
         <v>88</v>
       </c>
       <c r="BV150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW150" t="s">
         <v>326</v>
@@ -39737,7 +39737,7 @@
         <v>89</v>
       </c>
       <c r="CE150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CF150" t="s">
         <v>326</v>
@@ -40370,22 +40370,22 @@
         <v>89</v>
       </c>
       <c r="AN153" s="1" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="AO153" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AP153" s="1" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AQ153" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AR153" s="1" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="AS153" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="AT153" t="s">
         <v>326</v>
@@ -40397,7 +40397,7 @@
         <v>87</v>
       </c>
       <c r="AW153" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AX153" s="1" t="s">
         <v>88</v>
@@ -40412,7 +40412,7 @@
         <v>89</v>
       </c>
       <c r="BB153" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC153" s="1" t="s">
         <v>89</v>
@@ -40421,7 +40421,7 @@
         <v>87</v>
       </c>
       <c r="BE153" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="BF153" s="1" t="s">
         <v>89</v>
@@ -40433,13 +40433,13 @@
         <v>132</v>
       </c>
       <c r="BI153" s="1" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="BJ153" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BK153" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="BL153" t="s">
         <v>326</v>
@@ -40472,7 +40472,7 @@
         <v>88</v>
       </c>
       <c r="BV153" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW153" t="s">
         <v>326</v>
@@ -40499,7 +40499,7 @@
         <v>89</v>
       </c>
       <c r="CE153" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CF153" t="s">
         <v>326</v>

--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -6,13 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="currentAvailability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Current Availability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1216,6 +1217,24 @@
   <si>
     <t xml:space="preserve">DP1.10109.001</t>
   </si>
+  <si>
+    <t xml:space="preserve">Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Data collection is not planned for this site and data product combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earliest year in which data have been or will be collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earliest year in which data have been or will be collected; data are currently available for download</t>
+  </si>
 </sst>
 </file>
 
@@ -41525,4 +41544,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="101.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -1233,7 +1233,7 @@
     <t xml:space="preserve">Earliest year in which data have been or will be collected</t>
   </si>
   <si>
-    <t xml:space="preserve">Earliest year in which data have been or will be collected; data are currently available for download</t>
+    <t xml:space="preserve">Earliest year in which data have been or will be collected; partial or full data are currently available for download</t>
   </si>
 </sst>
 </file>
@@ -41555,7 +41555,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="101.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="117.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -768,6 +768,9 @@
     <t xml:space="preserve">DP4.00131.001</t>
   </si>
   <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bathymetric and Morphological maps</t>
   </si>
   <si>
@@ -993,9 +996,6 @@
     <t xml:space="preserve">DP1.10010.001</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coarse downed wood bulk density sampling</t>
   </si>
   <si>
@@ -1030,6 +1030,9 @@
   </si>
   <si>
     <t xml:space="preserve">DP1.10026.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
   </si>
   <si>
     <t xml:space="preserve">Litter chemical properties</t>
@@ -6789,19 +6792,19 @@
         <v>87</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>88</v>
@@ -6903,22 +6906,22 @@
         <v>88</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BE21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BH21" t="s">
         <v>88</v>
@@ -14399,7 +14402,7 @@
       <c r="L51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N51" t="s">
@@ -14432,7 +14435,7 @@
       <c r="W51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X51" t="s">
+      <c r="X51" s="1" t="s">
         <v>87</v>
       </c>
       <c r="Y51" s="1" t="s">
@@ -14444,7 +14447,7 @@
       <c r="AA51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AB51" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC51" s="1" t="s">
@@ -14459,7 +14462,7 @@
       <c r="AF51" t="s">
         <v>87</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH51" t="s">
@@ -16151,13 +16154,13 @@
         <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
         <v>91</v>
@@ -16169,88 +16172,88 @@
         <v>91</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R58" t="s">
         <v>91</v>
       </c>
       <c r="S58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T58" t="s">
         <v>91</v>
       </c>
       <c r="U58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>87</v>
       </c>
       <c r="Y58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AB58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AD58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AE58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AK58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AL58" t="s">
         <v>91</v>
@@ -22845,7 +22848,7 @@
         <v>132</v>
       </c>
       <c r="AH84" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="AI84" s="1" t="s">
         <v>89</v>
@@ -23000,10 +23003,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
         <v>182</v>
@@ -23254,13 +23257,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>87</v>
@@ -23508,13 +23511,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" t="s">
         <v>256</v>
-      </c>
-      <c r="B87" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" t="s">
-        <v>255</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>87</v>
@@ -23762,13 +23765,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
@@ -24016,13 +24019,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>87</v>
@@ -24270,13 +24273,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -24524,13 +24527,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
         <v>91</v>
@@ -24778,13 +24781,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
@@ -24864,7 +24867,7 @@
       <c r="AC92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AD92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AE92" t="s">
@@ -24894,7 +24897,7 @@
       <c r="AM92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AN92" t="s">
+      <c r="AN92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AO92" t="s">
@@ -24933,7 +24936,7 @@
       <c r="AZ92" t="s">
         <v>89</v>
       </c>
-      <c r="BA92" t="s">
+      <c r="BA92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BB92" t="s">
@@ -24957,22 +24960,22 @@
       <c r="BH92" t="s">
         <v>132</v>
       </c>
-      <c r="BI92" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ92" t="s">
+      <c r="BI92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BK92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BL92" t="s">
+      <c r="BL92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BM92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BN92" t="s">
+      <c r="BN92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BO92" t="s">
@@ -24984,7 +24987,7 @@
       <c r="BQ92" t="s">
         <v>89</v>
       </c>
-      <c r="BR92" t="s">
+      <c r="BR92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BS92" t="s">
@@ -24993,7 +24996,7 @@
       <c r="BT92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BU92" t="s">
+      <c r="BU92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BV92" t="s">
@@ -25032,13 +25035,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" t="s">
         <v>91</v>
@@ -25286,13 +25289,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" t="s">
         <v>91</v>
@@ -25540,13 +25543,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" t="s">
         <v>91</v>
@@ -25794,13 +25797,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>87</v>
@@ -26048,13 +26051,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>87</v>
@@ -26302,13 +26305,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
         <v>91</v>
@@ -26556,13 +26559,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
         <v>91</v>
@@ -26711,7 +26714,7 @@
       <c r="AZ99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BA99" t="s">
+      <c r="BA99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BB99" t="s">
@@ -26738,7 +26741,7 @@
       <c r="BI99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ99" t="s">
+      <c r="BJ99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BK99" s="1" t="s">
@@ -26753,7 +26756,7 @@
       <c r="BN99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BO99" t="s">
+      <c r="BO99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BP99" t="s">
@@ -26780,7 +26783,7 @@
       <c r="BW99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BX99" t="s">
+      <c r="BX99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BY99" t="s">
@@ -26810,13 +26813,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
@@ -27064,13 +27067,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D101" t="s">
         <v>91</v>
@@ -27318,13 +27321,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
         <v>91</v>
@@ -27572,13 +27575,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
         <v>91</v>
@@ -27826,13 +27829,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D104" t="s">
         <v>91</v>
@@ -28080,13 +28083,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
         <v>91</v>
@@ -28334,13 +28337,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
         <v>91</v>
@@ -28588,13 +28591,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D107" t="s">
         <v>91</v>
@@ -28702,7 +28705,7 @@
         <v>133</v>
       </c>
       <c r="AM107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN107" s="1" t="s">
         <v>133</v>
@@ -28717,10 +28720,10 @@
         <v>133</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AS107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT107" s="1" t="s">
         <v>90</v>
@@ -28765,16 +28768,16 @@
         <v>131</v>
       </c>
       <c r="BH107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BI107" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BJ107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BK107" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL107" s="1" t="s">
         <v>133</v>
@@ -28842,13 +28845,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s">
         <v>91</v>
@@ -28956,7 +28959,7 @@
         <v>133</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN108" s="1" t="s">
         <v>133</v>
@@ -28971,10 +28974,10 @@
         <v>133</v>
       </c>
       <c r="AR108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT108" s="1" t="s">
         <v>90</v>
@@ -29019,16 +29022,16 @@
         <v>131</v>
       </c>
       <c r="BH108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BI108" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BJ108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BK108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL108" s="1" t="s">
         <v>133</v>
@@ -29096,13 +29099,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>87</v>
@@ -29350,13 +29353,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
         <v>91</v>
@@ -29604,13 +29607,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
         <v>91</v>
@@ -29858,13 +29861,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
         <v>91</v>
@@ -30112,13 +30115,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
         <v>91</v>
@@ -30366,13 +30369,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
         <v>91</v>
@@ -30620,13 +30623,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D115" t="s">
         <v>91</v>
@@ -30874,13 +30877,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>91</v>
@@ -31128,13 +31131,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D117" t="s">
         <v>91</v>
@@ -31382,13 +31385,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" t="s">
         <v>91</v>
@@ -31636,14 +31639,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>323</v>
+      </c>
+      <c r="B119" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" t="s">
         <v>322</v>
       </c>
-      <c r="B119" t="s">
-        <v>323</v>
-      </c>
-      <c r="C119" t="s">
-        <v>321</v>
-      </c>
       <c r="D119" t="s">
         <v>91</v>
       </c>
@@ -31749,7 +31752,7 @@
       <c r="AL119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AM119" t="s">
+      <c r="AM119" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AN119" t="s">
@@ -31764,13 +31767,13 @@
       <c r="AQ119" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR119" t="s">
+      <c r="AR119" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AT119" t="s">
+      <c r="AT119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AU119" t="s">
@@ -31785,7 +31788,7 @@
       <c r="AX119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY119" t="s">
+      <c r="AY119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AZ119" s="1" t="s">
@@ -31797,7 +31800,7 @@
       <c r="BB119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC119" t="s">
+      <c r="BC119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BD119" s="1" t="s">
@@ -31806,7 +31809,7 @@
       <c r="BE119" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BF119" t="s">
+      <c r="BF119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
@@ -31830,7 +31833,7 @@
       <c r="BM119" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BN119" t="s">
+      <c r="BN119" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BO119" s="1" t="s">
@@ -31848,13 +31851,13 @@
       <c r="BS119" t="s">
         <v>88</v>
       </c>
-      <c r="BT119" t="s">
+      <c r="BT119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BU119" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BV119" t="s">
+      <c r="BV119" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BW119" t="s">
@@ -31863,13 +31866,13 @@
       <c r="BX119" t="s">
         <v>87</v>
       </c>
-      <c r="BY119" t="s">
+      <c r="BY119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BZ119" t="s">
         <v>91</v>
       </c>
-      <c r="CA119" t="s">
+      <c r="CA119" s="1" t="s">
         <v>89</v>
       </c>
       <c r="CB119" t="s">
@@ -31878,25 +31881,25 @@
       <c r="CC119" t="s">
         <v>89</v>
       </c>
-      <c r="CD119" t="s">
+      <c r="CD119" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CE119" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CF119" t="s">
+      <c r="CF119" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" t="s">
         <v>91</v>
@@ -32091,7 +32094,7 @@
         <v>91</v>
       </c>
       <c r="BP120" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BQ120" s="1" t="s">
         <v>89</v>
@@ -32112,7 +32115,7 @@
         <v>88</v>
       </c>
       <c r="BW120" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX120" s="1" t="s">
         <v>87</v>
@@ -32121,7 +32124,7 @@
         <v>132</v>
       </c>
       <c r="BZ120" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="CA120" t="s">
         <v>91</v>
@@ -32150,7 +32153,7 @@
         <v>328</v>
       </c>
       <c r="C121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
@@ -32270,7 +32273,7 @@
         <v>88</v>
       </c>
       <c r="AQ121" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AR121" s="1" t="s">
         <v>89</v>
@@ -32288,16 +32291,16 @@
         <v>88</v>
       </c>
       <c r="AW121" t="s">
-        <v>326</v>
-      </c>
-      <c r="AX121" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX121" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AY121" t="s">
         <v>91</v>
       </c>
       <c r="AZ121" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BA121" t="s">
         <v>91</v>
@@ -32309,15 +32312,15 @@
         <v>89</v>
       </c>
       <c r="BD121" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BE121" t="s">
         <v>132</v>
       </c>
       <c r="BF121" t="s">
-        <v>326</v>
-      </c>
-      <c r="BG121" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG121" s="1" t="s">
         <v>91</v>
       </c>
       <c r="BH121" t="s">
@@ -32345,7 +32348,7 @@
         <v>91</v>
       </c>
       <c r="BP121" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="BQ121" t="s">
         <v>89</v>
@@ -32360,13 +32363,13 @@
         <v>87</v>
       </c>
       <c r="BU121" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BV121" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BW121" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="BX121" t="s">
         <v>87</v>
@@ -32375,7 +32378,7 @@
         <v>132</v>
       </c>
       <c r="BZ121" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="CA121" t="s">
         <v>91</v>
@@ -32384,7 +32387,7 @@
         <v>91</v>
       </c>
       <c r="CC121" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CD121" t="s">
         <v>132</v>
@@ -32404,7 +32407,7 @@
         <v>330</v>
       </c>
       <c r="C122" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" t="s">
         <v>91</v>
@@ -32629,7 +32632,7 @@
         <v>87</v>
       </c>
       <c r="BZ122" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA122" s="1" t="s">
         <v>87</v>
@@ -32658,7 +32661,7 @@
         <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" t="s">
         <v>91</v>
@@ -32802,7 +32805,7 @@
         <v>88</v>
       </c>
       <c r="AY123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ123" s="1" t="s">
         <v>88</v>
@@ -32814,7 +32817,7 @@
         <v>88</v>
       </c>
       <c r="BC123" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD123" s="1" t="s">
         <v>88</v>
@@ -32829,7 +32832,7 @@
         <v>88</v>
       </c>
       <c r="BH123" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI123" s="1" t="s">
         <v>88</v>
@@ -32841,7 +32844,7 @@
         <v>88</v>
       </c>
       <c r="BL123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM123" s="1" t="s">
         <v>88</v>
@@ -32853,7 +32856,7 @@
         <v>88</v>
       </c>
       <c r="BP123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BQ123" s="1" t="s">
         <v>88</v>
@@ -32874,25 +32877,25 @@
         <v>88</v>
       </c>
       <c r="BW123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BX123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ123" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="CA123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CB123" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CC123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD123" s="1" t="s">
         <v>88</v>
@@ -32901,7 +32904,7 @@
         <v>88</v>
       </c>
       <c r="CF123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124">
@@ -32912,7 +32915,7 @@
         <v>334</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D124" t="s">
         <v>91</v>
@@ -33137,7 +33140,7 @@
         <v>87</v>
       </c>
       <c r="BZ124" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA124" s="1" t="s">
         <v>87</v>
@@ -33166,7 +33169,7 @@
         <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D125" t="s">
         <v>91</v>
@@ -33391,7 +33394,7 @@
         <v>87</v>
       </c>
       <c r="BZ125" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA125" s="1" t="s">
         <v>87</v>
@@ -33420,7 +33423,7 @@
         <v>338</v>
       </c>
       <c r="C126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D126" t="s">
         <v>91</v>
@@ -33531,7 +33534,7 @@
         <v>89</v>
       </c>
       <c r="AN126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO126" s="1" t="s">
         <v>87</v>
@@ -33549,7 +33552,7 @@
         <v>91</v>
       </c>
       <c r="AT126" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU126" t="s">
         <v>89</v>
@@ -33594,7 +33597,7 @@
         <v>132</v>
       </c>
       <c r="BI126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ126" s="1" t="s">
         <v>88</v>
@@ -33603,19 +33606,19 @@
         <v>91</v>
       </c>
       <c r="BL126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM126" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO126" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BP126" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ126" s="1" t="s">
         <v>87</v>
@@ -33636,7 +33639,7 @@
         <v>91</v>
       </c>
       <c r="BW126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX126" t="s">
         <v>132</v>
@@ -33645,10 +33648,10 @@
         <v>89</v>
       </c>
       <c r="BZ126" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CA126" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CB126" s="1" t="s">
         <v>87</v>
@@ -33663,18 +33666,18 @@
         <v>91</v>
       </c>
       <c r="CF126" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D127" t="s">
         <v>91</v>
@@ -33785,7 +33788,7 @@
         <v>89</v>
       </c>
       <c r="AN127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO127" s="1" t="s">
         <v>87</v>
@@ -33803,7 +33806,7 @@
         <v>91</v>
       </c>
       <c r="AT127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU127" t="s">
         <v>91</v>
@@ -33857,19 +33860,19 @@
         <v>91</v>
       </c>
       <c r="BL127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM127" t="s">
         <v>91</v>
       </c>
       <c r="BN127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO127" t="s">
         <v>91</v>
       </c>
       <c r="BP127" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ127" t="s">
         <v>91</v>
@@ -33890,7 +33893,7 @@
         <v>91</v>
       </c>
       <c r="BW127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX127" t="s">
         <v>132</v>
@@ -33899,7 +33902,7 @@
         <v>89</v>
       </c>
       <c r="BZ127" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CA127" t="s">
         <v>91</v>
@@ -33917,18 +33920,18 @@
         <v>91</v>
       </c>
       <c r="CF127" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D128" t="s">
         <v>91</v>
@@ -34123,7 +34126,7 @@
         <v>91</v>
       </c>
       <c r="BP128" s="1" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BQ128" t="s">
         <v>91</v>
@@ -34153,7 +34156,7 @@
         <v>87</v>
       </c>
       <c r="BZ128" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA128" t="s">
         <v>91</v>
@@ -34176,13 +34179,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D129" t="s">
         <v>91</v>
@@ -34430,13 +34433,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C130" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D130" t="s">
         <v>91</v>
@@ -34580,7 +34583,7 @@
         <v>88</v>
       </c>
       <c r="AY130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ130" s="1" t="s">
         <v>88</v>
@@ -34592,7 +34595,7 @@
         <v>88</v>
       </c>
       <c r="BC130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD130" s="1" t="s">
         <v>88</v>
@@ -34607,7 +34610,7 @@
         <v>88</v>
       </c>
       <c r="BH130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI130" s="1" t="s">
         <v>88</v>
@@ -34619,7 +34622,7 @@
         <v>88</v>
       </c>
       <c r="BL130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM130" s="1" t="s">
         <v>88</v>
@@ -34631,7 +34634,7 @@
         <v>88</v>
       </c>
       <c r="BP130" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BQ130" s="1" t="s">
         <v>88</v>
@@ -34652,25 +34655,25 @@
         <v>88</v>
       </c>
       <c r="BW130" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BX130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ130" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="CA130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CB130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CC130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD130" s="1" t="s">
         <v>88</v>
@@ -34679,18 +34682,18 @@
         <v>88</v>
       </c>
       <c r="CF130" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B131" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C131" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D131" t="s">
         <v>91</v>
@@ -34915,7 +34918,7 @@
         <v>87</v>
       </c>
       <c r="BZ131" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA131" s="1" t="s">
         <v>87</v>
@@ -34938,13 +34941,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D132" t="s">
         <v>91</v>
@@ -35169,7 +35172,7 @@
         <v>87</v>
       </c>
       <c r="BZ132" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA132" s="1" t="s">
         <v>87</v>
@@ -35192,13 +35195,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D133" t="s">
         <v>91</v>
@@ -35393,7 +35396,7 @@
         <v>91</v>
       </c>
       <c r="BP133" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BQ133" t="s">
         <v>90</v>
@@ -35414,7 +35417,7 @@
         <v>88</v>
       </c>
       <c r="BW133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BX133" t="s">
         <v>87</v>
@@ -35446,13 +35449,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C134" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D134" t="s">
         <v>91</v>
@@ -35574,13 +35577,13 @@
       <c r="AQ134" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR134" t="s">
+      <c r="AR134" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AS134" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AT134" t="s">
+      <c r="AT134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AU134" t="s">
@@ -35595,7 +35598,7 @@
       <c r="AX134" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY134" t="s">
+      <c r="AY134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AZ134" s="1" t="s">
@@ -35607,7 +35610,7 @@
       <c r="BB134" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BC134" t="s">
+      <c r="BC134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BD134" s="1" t="s">
@@ -35616,7 +35619,7 @@
       <c r="BE134" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BF134" t="s">
+      <c r="BF134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BG134" s="1" t="s">
@@ -35658,7 +35661,7 @@
       <c r="BS134" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BT134" t="s">
+      <c r="BT134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BU134" s="1" t="s">
@@ -35673,13 +35676,13 @@
       <c r="BX134" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BY134" t="s">
+      <c r="BY134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BZ134" t="s">
         <v>91</v>
       </c>
-      <c r="CA134" t="s">
+      <c r="CA134" s="1" t="s">
         <v>89</v>
       </c>
       <c r="CB134" t="s">
@@ -35688,25 +35691,25 @@
       <c r="CC134" t="s">
         <v>89</v>
       </c>
-      <c r="CD134" t="s">
+      <c r="CD134" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CE134" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CF134" t="s">
-        <v>89</v>
+      <c r="CF134" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D135" t="s">
         <v>91</v>
@@ -35817,7 +35820,7 @@
         <v>89</v>
       </c>
       <c r="AN135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO135" s="1" t="s">
         <v>87</v>
@@ -35834,8 +35837,8 @@
       <c r="AS135" t="s">
         <v>91</v>
       </c>
-      <c r="AT135" t="s">
-        <v>326</v>
+      <c r="AT135" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AU135" t="s">
         <v>89</v>
@@ -35880,7 +35883,7 @@
         <v>132</v>
       </c>
       <c r="BI135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ135" s="1" t="s">
         <v>88</v>
@@ -35889,19 +35892,19 @@
         <v>91</v>
       </c>
       <c r="BL135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM135" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN135" t="s">
-        <v>326</v>
-      </c>
-      <c r="BO135" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO135" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BP135" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ135" s="1" t="s">
         <v>87</v>
@@ -35922,7 +35925,7 @@
         <v>91</v>
       </c>
       <c r="BW135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX135" t="s">
         <v>132</v>
@@ -35931,10 +35934,10 @@
         <v>89</v>
       </c>
       <c r="BZ135" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CA135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CB135" s="1" t="s">
         <v>87</v>
@@ -35949,18 +35952,18 @@
         <v>91</v>
       </c>
       <c r="CF135" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C136" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D136" t="s">
         <v>91</v>
@@ -36185,7 +36188,7 @@
         <v>87</v>
       </c>
       <c r="BZ136" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA136" s="1" t="s">
         <v>87</v>
@@ -36208,13 +36211,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B137" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D137" t="s">
         <v>91</v>
@@ -36462,13 +36465,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" t="s">
         <v>91</v>
@@ -36693,7 +36696,7 @@
         <v>87</v>
       </c>
       <c r="BZ138" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA138" t="s">
         <v>87</v>
@@ -36716,13 +36719,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D139" t="s">
         <v>91</v>
@@ -36830,7 +36833,7 @@
         <v>133</v>
       </c>
       <c r="AM139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN139" s="1" t="s">
         <v>133</v>
@@ -36845,10 +36848,10 @@
         <v>133</v>
       </c>
       <c r="AR139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AS139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT139" s="1" t="s">
         <v>90</v>
@@ -36893,16 +36896,16 @@
         <v>131</v>
       </c>
       <c r="BH139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BI139" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BJ139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BK139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL139" s="1" t="s">
         <v>133</v>
@@ -36970,13 +36973,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B140" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D140" t="s">
         <v>91</v>
@@ -37087,7 +37090,7 @@
         <v>89</v>
       </c>
       <c r="AN140" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO140" s="1" t="s">
         <v>87</v>
@@ -37105,7 +37108,7 @@
         <v>91</v>
       </c>
       <c r="AT140" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU140" t="s">
         <v>89</v>
@@ -37150,7 +37153,7 @@
         <v>132</v>
       </c>
       <c r="BI140" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ140" s="1" t="s">
         <v>88</v>
@@ -37159,19 +37162,19 @@
         <v>91</v>
       </c>
       <c r="BL140" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="BM140" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN140" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO140" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BP140" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ140" s="1" t="s">
         <v>87</v>
@@ -37192,7 +37195,7 @@
         <v>91</v>
       </c>
       <c r="BW140" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BX140" t="s">
         <v>132</v>
@@ -37201,10 +37204,10 @@
         <v>89</v>
       </c>
       <c r="BZ140" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="CA140" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="CB140" s="1" t="s">
         <v>87</v>
@@ -37219,18 +37222,18 @@
         <v>91</v>
       </c>
       <c r="CF140" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C141" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
         <v>91</v>
@@ -37455,7 +37458,7 @@
         <v>87</v>
       </c>
       <c r="BZ141" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA141" s="1" t="s">
         <v>87</v>
@@ -37478,13 +37481,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C142" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D142" t="s">
         <v>91</v>
@@ -37628,7 +37631,7 @@
         <v>88</v>
       </c>
       <c r="AY142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ142" s="1" t="s">
         <v>88</v>
@@ -37640,7 +37643,7 @@
         <v>88</v>
       </c>
       <c r="BC142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD142" s="1" t="s">
         <v>88</v>
@@ -37655,7 +37658,7 @@
         <v>88</v>
       </c>
       <c r="BH142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI142" s="1" t="s">
         <v>88</v>
@@ -37667,7 +37670,7 @@
         <v>88</v>
       </c>
       <c r="BL142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM142" s="1" t="s">
         <v>88</v>
@@ -37679,7 +37682,7 @@
         <v>88</v>
       </c>
       <c r="BP142" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BQ142" s="1" t="s">
         <v>88</v>
@@ -37700,25 +37703,25 @@
         <v>88</v>
       </c>
       <c r="BW142" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BX142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BY142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BZ142" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="CA142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CB142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CC142" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CD142" s="1" t="s">
         <v>88</v>
@@ -37727,18 +37730,18 @@
         <v>88</v>
       </c>
       <c r="CF142" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B143" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D143" t="s">
         <v>91</v>
@@ -37912,7 +37915,7 @@
         <v>91</v>
       </c>
       <c r="BI143" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ143" s="1" t="s">
         <v>131</v>
@@ -37927,13 +37930,13 @@
         <v>133</v>
       </c>
       <c r="BN143" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO143" s="1" t="s">
         <v>90</v>
       </c>
       <c r="BP143" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ143" s="1" t="s">
         <v>88</v>
@@ -37954,7 +37957,7 @@
         <v>91</v>
       </c>
       <c r="BW143" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="BX143" t="s">
         <v>132</v>
@@ -37963,10 +37966,10 @@
         <v>89</v>
       </c>
       <c r="BZ143" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="CA143" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CB143" s="1" t="s">
         <v>87</v>
@@ -37981,18 +37984,18 @@
         <v>90</v>
       </c>
       <c r="CF143" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B144" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D144" t="s">
         <v>91</v>
@@ -38103,7 +38106,7 @@
         <v>89</v>
       </c>
       <c r="AN144" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO144" s="1" t="s">
         <v>87</v>
@@ -38121,7 +38124,7 @@
         <v>91</v>
       </c>
       <c r="AT144" s="1" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU144" t="s">
         <v>89</v>
@@ -38166,7 +38169,7 @@
         <v>132</v>
       </c>
       <c r="BI144" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ144" t="s">
         <v>91</v>
@@ -38175,19 +38178,19 @@
         <v>91</v>
       </c>
       <c r="BL144" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM144" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN144" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO144" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BP144" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ144" s="1" t="s">
         <v>87</v>
@@ -38208,7 +38211,7 @@
         <v>91</v>
       </c>
       <c r="BW144" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX144" s="1" t="s">
         <v>132</v>
@@ -38217,10 +38220,10 @@
         <v>89</v>
       </c>
       <c r="BZ144" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CA144" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CB144" s="1" t="s">
         <v>87</v>
@@ -38234,19 +38237,19 @@
       <c r="CE144" t="s">
         <v>91</v>
       </c>
-      <c r="CF144" t="s">
-        <v>326</v>
+      <c r="CF144" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B145" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C145" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D145" t="s">
         <v>91</v>
@@ -38441,7 +38444,7 @@
         <v>90</v>
       </c>
       <c r="BP145" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BQ145" t="s">
         <v>88</v>
@@ -38471,7 +38474,7 @@
         <v>87</v>
       </c>
       <c r="BZ145" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="CA145" t="s">
         <v>87</v>
@@ -38489,18 +38492,18 @@
         <v>88</v>
       </c>
       <c r="CF145" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B146" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C146" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D146" t="s">
         <v>91</v>
@@ -38695,7 +38698,7 @@
         <v>90</v>
       </c>
       <c r="BP146" s="1" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BQ146" s="1" t="s">
         <v>90</v>
@@ -38716,7 +38719,7 @@
         <v>88</v>
       </c>
       <c r="BW146" s="1" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BX146" s="1" t="s">
         <v>90</v>
@@ -38725,7 +38728,7 @@
         <v>89</v>
       </c>
       <c r="BZ146" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="CA146" s="1" t="s">
         <v>87</v>
@@ -38743,18 +38746,18 @@
         <v>90</v>
       </c>
       <c r="CF146" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D147" t="s">
         <v>91</v>
@@ -38979,7 +38982,7 @@
         <v>87</v>
       </c>
       <c r="BZ147" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA147" t="s">
         <v>87</v>
@@ -39002,13 +39005,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B148" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
         <v>91</v>
@@ -39233,7 +39236,7 @@
         <v>87</v>
       </c>
       <c r="BZ148" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA148" s="1" t="s">
         <v>87</v>
@@ -39256,13 +39259,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B149" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C149" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D149" t="s">
         <v>91</v>
@@ -39457,7 +39460,7 @@
         <v>91</v>
       </c>
       <c r="BP149" s="1" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BQ149" s="1" t="s">
         <v>90</v>
@@ -39478,7 +39481,7 @@
         <v>88</v>
       </c>
       <c r="BW149" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BX149" s="1" t="s">
         <v>87</v>
@@ -39510,13 +39513,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D150" t="s">
         <v>91</v>
@@ -39639,13 +39642,13 @@
         <v>89</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AS150" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT150" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU150" s="1" t="s">
         <v>89</v>
@@ -39696,22 +39699,22 @@
         <v>88</v>
       </c>
       <c r="BK150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL150" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM150" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN150" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO150" t="s">
         <v>89</v>
       </c>
       <c r="BP150" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="BQ150" s="1" t="s">
         <v>87</v>
@@ -39732,7 +39735,7 @@
         <v>90</v>
       </c>
       <c r="BW150" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BX150" t="s">
         <v>132</v>
@@ -39741,10 +39744,10 @@
         <v>89</v>
       </c>
       <c r="BZ150" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="CA150" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="CB150" s="1" t="s">
         <v>87</v>
@@ -39759,18 +39762,18 @@
         <v>90</v>
       </c>
       <c r="CF150" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B151" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D151" t="s">
         <v>91</v>
@@ -39944,7 +39947,7 @@
         <v>91</v>
       </c>
       <c r="BI151" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ151" s="1" t="s">
         <v>131</v>
@@ -39959,13 +39962,13 @@
         <v>133</v>
       </c>
       <c r="BN151" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO151" s="1" t="s">
         <v>90</v>
       </c>
       <c r="BP151" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ151" s="1" t="s">
         <v>88</v>
@@ -39986,7 +39989,7 @@
         <v>91</v>
       </c>
       <c r="BW151" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="BX151" t="s">
         <v>132</v>
@@ -39995,10 +39998,10 @@
         <v>89</v>
       </c>
       <c r="BZ151" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="CA151" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CB151" s="1" t="s">
         <v>87</v>
@@ -40013,18 +40016,18 @@
         <v>90</v>
       </c>
       <c r="CF151" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
         <v>91</v>
@@ -40135,7 +40138,7 @@
         <v>89</v>
       </c>
       <c r="AN152" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO152" s="1" t="s">
         <v>87</v>
@@ -40152,8 +40155,8 @@
       <c r="AS152" t="s">
         <v>91</v>
       </c>
-      <c r="AT152" t="s">
-        <v>326</v>
+      <c r="AT152" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="AU152" t="s">
         <v>91</v>
@@ -40207,19 +40210,19 @@
         <v>91</v>
       </c>
       <c r="BL152" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM152" t="s">
         <v>91</v>
       </c>
       <c r="BN152" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO152" t="s">
         <v>91</v>
       </c>
       <c r="BP152" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ152" t="s">
         <v>91</v>
@@ -40240,7 +40243,7 @@
         <v>91</v>
       </c>
       <c r="BW152" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX152" t="s">
         <v>132</v>
@@ -40249,7 +40252,7 @@
         <v>89</v>
       </c>
       <c r="BZ152" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="CA152" t="s">
         <v>91</v>
@@ -40267,18 +40270,18 @@
         <v>91</v>
       </c>
       <c r="CF152" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B153" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C153" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D153" t="s">
         <v>91</v>
@@ -40401,13 +40404,13 @@
         <v>89</v>
       </c>
       <c r="AR153" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AS153" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AT153" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU153" s="1" t="s">
         <v>89</v>
@@ -40458,22 +40461,22 @@
         <v>88</v>
       </c>
       <c r="BK153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL153" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM153" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN153" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO153" t="s">
         <v>89</v>
       </c>
       <c r="BP153" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="BQ153" s="1" t="s">
         <v>87</v>
@@ -40494,7 +40497,7 @@
         <v>90</v>
       </c>
       <c r="BW153" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BX153" t="s">
         <v>132</v>
@@ -40503,10 +40506,10 @@
         <v>89</v>
       </c>
       <c r="BZ153" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="CA153" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
       <c r="CB153" s="1" t="s">
         <v>87</v>
@@ -40521,18 +40524,18 @@
         <v>90</v>
       </c>
       <c r="CF153" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B154" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D154" t="s">
         <v>91</v>
@@ -40643,7 +40646,7 @@
         <v>89</v>
       </c>
       <c r="AN154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AO154" s="1" t="s">
         <v>87</v>
@@ -40661,7 +40664,7 @@
         <v>91</v>
       </c>
       <c r="AT154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="AU154" t="s">
         <v>89</v>
@@ -40706,7 +40709,7 @@
         <v>132</v>
       </c>
       <c r="BI154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BJ154" t="s">
         <v>91</v>
@@ -40715,19 +40718,19 @@
         <v>91</v>
       </c>
       <c r="BL154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BM154" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BN154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BO154" t="s">
         <v>89</v>
       </c>
       <c r="BP154" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="BQ154" s="1" t="s">
         <v>87</v>
@@ -40748,7 +40751,7 @@
         <v>91</v>
       </c>
       <c r="BW154" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="BX154" t="s">
         <v>132</v>
@@ -40757,10 +40760,10 @@
         <v>89</v>
       </c>
       <c r="BZ154" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="CA154" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="CB154" s="1" t="s">
         <v>87</v>
@@ -40775,18 +40778,18 @@
         <v>91</v>
       </c>
       <c r="CF154" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B155" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D155" t="s">
         <v>91</v>
@@ -40981,7 +40984,7 @@
         <v>90</v>
       </c>
       <c r="BP155" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BQ155" t="s">
         <v>88</v>
@@ -41011,7 +41014,7 @@
         <v>87</v>
       </c>
       <c r="BZ155" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="CA155" t="s">
         <v>87</v>
@@ -41029,18 +41032,18 @@
         <v>88</v>
       </c>
       <c r="CF155" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B156" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C156" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D156" t="s">
         <v>91</v>
@@ -41150,13 +41153,13 @@
       <c r="AM156" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AN156" t="s">
+      <c r="AN156" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AO156" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AP156" t="s">
+      <c r="AP156" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AQ156" s="1" t="s">
@@ -41168,10 +41171,10 @@
       <c r="AS156" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AT156" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU156" t="s">
+      <c r="AT156" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AV156" s="1" t="s">
@@ -41201,10 +41204,10 @@
       <c r="BD156" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BE156" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF156" t="s">
+      <c r="BE156" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BG156" s="1" t="s">
@@ -41228,14 +41231,14 @@
       <c r="BM156" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BN156" t="s">
+      <c r="BN156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BO156" s="1" t="s">
         <v>90</v>
       </c>
       <c r="BP156" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="BQ156" s="1" t="s">
         <v>88</v>
@@ -41246,7 +41249,7 @@
       <c r="BS156" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BT156" t="s">
+      <c r="BT156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BU156" s="1" t="s">
@@ -41258,43 +41261,43 @@
       <c r="BW156" t="s">
         <v>89</v>
       </c>
-      <c r="BX156" t="s">
+      <c r="BX156" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BY156" t="s">
         <v>87</v>
       </c>
       <c r="BZ156" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA156" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB156" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB156" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CC156" t="s">
         <v>87</v>
       </c>
-      <c r="CD156" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE156" t="s">
+      <c r="CD156" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE156" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CF156" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D157" t="s">
         <v>91</v>
@@ -41398,7 +41401,7 @@
       <c r="AK157" t="s">
         <v>91</v>
       </c>
-      <c r="AL157" t="s">
+      <c r="AL157" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AM157" s="1" t="s">
@@ -41422,7 +41425,7 @@
       <c r="AS157" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AT157" t="s">
+      <c r="AT157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AU157" s="1" t="s">
@@ -41431,13 +41434,13 @@
       <c r="AV157" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AW157" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX157" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY157" t="s">
+      <c r="AW157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX157" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AZ157" s="1" t="s">
@@ -41446,25 +41449,25 @@
       <c r="BA157" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB157" t="s">
+      <c r="BB157" s="1" t="s">
         <v>90</v>
       </c>
       <c r="BC157" t="s">
         <v>87</v>
       </c>
-      <c r="BD157" t="s">
+      <c r="BD157" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BE157" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BF157" t="s">
+      <c r="BF157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BG157" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BH157" t="s">
+      <c r="BH157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BI157" s="1" t="s">
@@ -41476,7 +41479,7 @@
       <c r="BK157" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BL157" t="s">
+      <c r="BL157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BM157" s="1" t="s">
@@ -41489,55 +41492,55 @@
         <v>90</v>
       </c>
       <c r="BP157" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ157" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BR157" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BS157" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT157" t="s">
+      <c r="BS157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BU157" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BV157" t="s">
+      <c r="BV157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BW157" t="s">
         <v>89</v>
       </c>
-      <c r="BX157" t="s">
+      <c r="BX157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BY157" t="s">
         <v>87</v>
       </c>
       <c r="BZ157" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA157" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB157" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB157" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CC157" t="s">
         <v>87</v>
       </c>
-      <c r="CD157" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE157" t="s">
+      <c r="CD157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE157" s="1" t="s">
         <v>88</v>
       </c>
       <c r="CF157" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -41560,10 +41563,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
@@ -41571,23 +41574,23 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -6758,61 +6758,61 @@
       <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" t="s">
-        <v>87</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X21" t="s">
@@ -6827,13 +6827,13 @@
       <c r="AA21" t="s">
         <v>87</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC21" t="s">
         <v>91</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AE21" t="s">
@@ -6842,10 +6842,10 @@
       <c r="AF21" t="s">
         <v>132</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" t="s">
         <v>133</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AH21" t="s">
         <v>133</v>
       </c>
       <c r="AI21" t="s">
@@ -7012,7 +7012,7 @@
       <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -7027,22 +7027,22 @@
       <c r="I22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" t="s">
-        <v>132</v>
+      <c r="J22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -7066,7 +7066,7 @@
       <c r="V22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X22" t="s">
@@ -7078,19 +7078,19 @@
       <c r="Z22" t="s">
         <v>132</v>
       </c>
-      <c r="AA22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AA22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC22" t="s">
         <v>91</v>
       </c>
-      <c r="AD22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AD22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF22" t="s">
@@ -7102,13 +7102,13 @@
       <c r="AH22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK22" t="s">
+      <c r="AI22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL22" s="1" t="s">
@@ -7266,7 +7266,7 @@
       <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -7281,28 +7281,28 @@
       <c r="I23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>132</v>
+      <c r="J23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>90</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -7320,7 +7320,7 @@
       <c r="V23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X23" t="s">
@@ -7332,19 +7332,19 @@
       <c r="Z23" t="s">
         <v>132</v>
       </c>
-      <c r="AA23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AA23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC23" t="s">
         <v>91</v>
       </c>
-      <c r="AD23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AD23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF23" t="s">
@@ -7356,10 +7356,10 @@
       <c r="AH23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AI23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK23" t="s">
@@ -7520,7 +7520,7 @@
       <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -7535,28 +7535,28 @@
       <c r="I24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" t="s">
-        <v>132</v>
+      <c r="J24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>90</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -7574,7 +7574,7 @@
       <c r="V24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X24" t="s">
@@ -7586,19 +7586,19 @@
       <c r="Z24" t="s">
         <v>132</v>
       </c>
-      <c r="AA24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AA24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC24" t="s">
         <v>91</v>
       </c>
-      <c r="AD24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AD24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF24" t="s">
@@ -7610,10 +7610,10 @@
       <c r="AH24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AI24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK24" t="s">
@@ -7758,7 +7758,7 @@
         <v>87</v>
       </c>
       <c r="CF24" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
@@ -7774,7 +7774,7 @@
       <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>88</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -7789,28 +7789,28 @@
       <c r="I25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" t="s">
-        <v>132</v>
+      <c r="J25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>90</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -7828,7 +7828,7 @@
       <c r="V25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X25" t="s">
@@ -7840,19 +7840,19 @@
       <c r="Z25" t="s">
         <v>132</v>
       </c>
-      <c r="AA25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AA25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC25" t="s">
         <v>91</v>
       </c>
-      <c r="AD25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AD25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF25" t="s">
@@ -7864,13 +7864,13 @@
       <c r="AH25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK25" t="s">
+      <c r="AI25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL25" s="1" t="s">
@@ -8282,7 +8282,7 @@
       <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -8297,28 +8297,28 @@
       <c r="I27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
-        <v>132</v>
+      <c r="J27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>90</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -8336,7 +8336,7 @@
       <c r="V27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X27" t="s">
@@ -8348,19 +8348,19 @@
       <c r="Z27" t="s">
         <v>132</v>
       </c>
-      <c r="AA27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AA27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC27" t="s">
         <v>91</v>
       </c>
-      <c r="AD27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AD27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF27" t="s">
@@ -8372,10 +8372,10 @@
       <c r="AH27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ27" t="s">
+      <c r="AI27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK27" t="s">
@@ -8536,7 +8536,7 @@
       <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>88</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -8551,28 +8551,28 @@
       <c r="I28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
+      <c r="J28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>90</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -8602,19 +8602,19 @@
       <c r="Z28" t="s">
         <v>132</v>
       </c>
-      <c r="AA28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AA28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC28" t="s">
         <v>91</v>
       </c>
-      <c r="AD28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AD28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF28" t="s">
@@ -8626,10 +8626,10 @@
       <c r="AH28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AI28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK28" t="s">
@@ -8790,7 +8790,7 @@
       <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -8805,28 +8805,28 @@
       <c r="I29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" t="s">
-        <v>132</v>
+      <c r="J29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>90</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -8856,19 +8856,19 @@
       <c r="Z29" t="s">
         <v>132</v>
       </c>
-      <c r="AA29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AA29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC29" t="s">
         <v>91</v>
       </c>
-      <c r="AD29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AD29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF29" t="s">
@@ -8880,10 +8880,10 @@
       <c r="AH29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ29" t="s">
+      <c r="AI29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK29" t="s">
@@ -9044,7 +9044,7 @@
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>88</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -9059,28 +9059,28 @@
       <c r="I30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" t="s">
-        <v>132</v>
+      <c r="J30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" t="s">
         <v>90</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -9110,19 +9110,19 @@
       <c r="Z30" t="s">
         <v>132</v>
       </c>
-      <c r="AA30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB30" t="s">
+      <c r="AA30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC30" t="s">
         <v>91</v>
       </c>
-      <c r="AD30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AD30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF30" t="s">
@@ -9134,10 +9134,10 @@
       <c r="AH30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ30" t="s">
+      <c r="AI30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK30" t="s">
@@ -9298,7 +9298,7 @@
       <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -9313,28 +9313,28 @@
       <c r="I31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" t="s">
-        <v>132</v>
+      <c r="J31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" t="s">
         <v>90</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -9364,19 +9364,19 @@
       <c r="Z31" t="s">
         <v>132</v>
       </c>
-      <c r="AA31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AA31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC31" t="s">
         <v>91</v>
       </c>
-      <c r="AD31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AD31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF31" t="s">
@@ -9388,10 +9388,10 @@
       <c r="AH31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ31" t="s">
+      <c r="AI31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK31" t="s">
@@ -9552,7 +9552,7 @@
       <c r="D32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>88</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -9567,28 +9567,28 @@
       <c r="I32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J32" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" t="s">
-        <v>132</v>
+      <c r="J32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" t="s">
         <v>90</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -9618,19 +9618,19 @@
       <c r="Z32" t="s">
         <v>132</v>
       </c>
-      <c r="AA32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="AA32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC32" t="s">
         <v>91</v>
       </c>
-      <c r="AD32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AD32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF32" t="s">
@@ -9642,10 +9642,10 @@
       <c r="AH32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="AI32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK32" t="s">
@@ -9806,7 +9806,7 @@
       <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>88</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -9821,28 +9821,28 @@
       <c r="I33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J33" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
+      <c r="J33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" t="s">
         <v>90</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -9872,19 +9872,19 @@
       <c r="Z33" t="s">
         <v>132</v>
       </c>
-      <c r="AA33" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB33" t="s">
+      <c r="AA33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC33" t="s">
         <v>91</v>
       </c>
-      <c r="AD33" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AD33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF33" t="s">
@@ -9896,10 +9896,10 @@
       <c r="AH33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI33" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ33" t="s">
+      <c r="AI33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK33" t="s">
@@ -10060,7 +10060,7 @@
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -10075,28 +10075,28 @@
       <c r="I34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
+      <c r="J34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" t="s">
         <v>90</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -10126,19 +10126,19 @@
       <c r="Z34" t="s">
         <v>132</v>
       </c>
-      <c r="AA34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB34" t="s">
+      <c r="AA34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC34" t="s">
         <v>91</v>
       </c>
-      <c r="AD34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AD34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF34" t="s">
@@ -10150,10 +10150,10 @@
       <c r="AH34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ34" t="s">
+      <c r="AI34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK34" t="s">
@@ -10314,7 +10314,7 @@
       <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>88</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -10329,28 +10329,28 @@
       <c r="I35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K35" t="s">
-        <v>132</v>
+      <c r="J35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" t="s">
         <v>90</v>
       </c>
       <c r="R35" s="1" t="s">
@@ -10380,19 +10380,19 @@
       <c r="Z35" t="s">
         <v>132</v>
       </c>
-      <c r="AA35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB35" t="s">
+      <c r="AA35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC35" t="s">
         <v>91</v>
       </c>
-      <c r="AD35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AD35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF35" t="s">
@@ -10404,10 +10404,10 @@
       <c r="AH35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ35" t="s">
+      <c r="AI35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK35" t="s">
@@ -10568,7 +10568,7 @@
       <c r="D36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -10583,28 +10583,28 @@
       <c r="I36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" t="s">
-        <v>132</v>
+      <c r="J36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" t="s">
         <v>90</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -10622,7 +10622,7 @@
       <c r="V36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X36" t="s">
@@ -10634,19 +10634,19 @@
       <c r="Z36" t="s">
         <v>132</v>
       </c>
-      <c r="AA36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB36" t="s">
+      <c r="AA36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC36" t="s">
         <v>91</v>
       </c>
-      <c r="AD36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE36" t="s">
+      <c r="AD36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF36" t="s">
@@ -10658,10 +10658,10 @@
       <c r="AH36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI36" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ36" t="s">
+      <c r="AI36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK36" t="s">
@@ -10822,7 +10822,7 @@
       <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>88</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -10837,28 +10837,28 @@
       <c r="I37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" t="s">
-        <v>132</v>
+      <c r="J37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" t="s">
         <v>90</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -10876,7 +10876,7 @@
       <c r="V37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X37" t="s">
@@ -10888,19 +10888,19 @@
       <c r="Z37" t="s">
         <v>132</v>
       </c>
-      <c r="AA37" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="AA37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC37" t="s">
         <v>91</v>
       </c>
-      <c r="AD37" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE37" t="s">
+      <c r="AD37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF37" t="s">
@@ -10912,13 +10912,13 @@
       <c r="AH37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI37" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK37" t="s">
+      <c r="AI37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL37" s="1" t="s">
@@ -11076,7 +11076,7 @@
       <c r="D38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -11091,28 +11091,28 @@
       <c r="I38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J38" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" t="s">
-        <v>132</v>
+      <c r="J38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" t="s">
         <v>90</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -11130,7 +11130,7 @@
       <c r="V38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X38" t="s">
@@ -11142,19 +11142,19 @@
       <c r="Z38" t="s">
         <v>132</v>
       </c>
-      <c r="AA38" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB38" t="s">
+      <c r="AA38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC38" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE38" t="s">
+      <c r="AD38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF38" t="s">
@@ -11166,10 +11166,10 @@
       <c r="AH38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI38" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ38" t="s">
+      <c r="AI38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK38" t="s">
@@ -11330,7 +11330,7 @@
       <c r="D39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -11345,28 +11345,28 @@
       <c r="I39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" t="s">
-        <v>132</v>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" t="s">
         <v>90</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -11396,19 +11396,19 @@
       <c r="Z39" t="s">
         <v>132</v>
       </c>
-      <c r="AA39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB39" t="s">
+      <c r="AA39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC39" t="s">
         <v>91</v>
       </c>
-      <c r="AD39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE39" t="s">
+      <c r="AD39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF39" t="s">
@@ -11420,10 +11420,10 @@
       <c r="AH39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ39" t="s">
+      <c r="AI39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK39" t="s">
@@ -11584,7 +11584,7 @@
       <c r="D40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -11599,28 +11599,28 @@
       <c r="I40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" t="s">
-        <v>132</v>
+      <c r="J40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" t="s">
         <v>90</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -11650,19 +11650,19 @@
       <c r="Z40" t="s">
         <v>132</v>
       </c>
-      <c r="AA40" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB40" t="s">
+      <c r="AA40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC40" t="s">
         <v>91</v>
       </c>
-      <c r="AD40" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE40" t="s">
+      <c r="AD40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF40" t="s">
@@ -11674,10 +11674,10 @@
       <c r="AH40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI40" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ40" t="s">
+      <c r="AI40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK40" t="s">
@@ -11838,7 +11838,7 @@
       <c r="D41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -11853,22 +11853,22 @@
       <c r="I41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" t="s">
-        <v>132</v>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -11892,7 +11892,7 @@
       <c r="V41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X41" t="s">
@@ -11904,19 +11904,19 @@
       <c r="Z41" t="s">
         <v>132</v>
       </c>
-      <c r="AA41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB41" t="s">
+      <c r="AA41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC41" t="s">
         <v>91</v>
       </c>
-      <c r="AD41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE41" t="s">
+      <c r="AD41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF41" t="s">
@@ -11928,13 +11928,13 @@
       <c r="AH41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK41" t="s">
+      <c r="AI41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL41" s="1" t="s">
@@ -12092,7 +12092,7 @@
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -12107,28 +12107,28 @@
       <c r="I42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J42" t="s">
-        <v>132</v>
-      </c>
-      <c r="K42" t="s">
-        <v>132</v>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" t="s">
         <v>90</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -12158,19 +12158,19 @@
       <c r="Z42" t="s">
         <v>132</v>
       </c>
-      <c r="AA42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB42" t="s">
+      <c r="AA42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC42" t="s">
         <v>91</v>
       </c>
-      <c r="AD42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE42" t="s">
+      <c r="AD42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF42" t="s">
@@ -12182,10 +12182,10 @@
       <c r="AH42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ42" t="s">
+      <c r="AI42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK42" t="s">
@@ -12346,7 +12346,7 @@
       <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>88</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -12361,28 +12361,28 @@
       <c r="I43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" t="s">
-        <v>132</v>
+      <c r="J43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" t="s">
         <v>90</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -12412,19 +12412,19 @@
       <c r="Z43" t="s">
         <v>132</v>
       </c>
-      <c r="AA43" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB43" t="s">
+      <c r="AA43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC43" t="s">
         <v>91</v>
       </c>
-      <c r="AD43" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE43" t="s">
+      <c r="AD43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF43" t="s">
@@ -12436,10 +12436,10 @@
       <c r="AH43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI43" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ43" t="s">
+      <c r="AI43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK43" t="s">
@@ -12600,7 +12600,7 @@
       <c r="D44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -12615,28 +12615,28 @@
       <c r="I44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
+      <c r="J44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" t="s">
         <v>90</v>
       </c>
       <c r="R44" s="1" t="s">
@@ -12666,19 +12666,19 @@
       <c r="Z44" t="s">
         <v>132</v>
       </c>
-      <c r="AA44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB44" t="s">
+      <c r="AA44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC44" t="s">
         <v>91</v>
       </c>
-      <c r="AD44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE44" t="s">
+      <c r="AD44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF44" t="s">
@@ -12690,10 +12690,10 @@
       <c r="AH44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ44" t="s">
+      <c r="AI44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK44" t="s">
@@ -12854,7 +12854,7 @@
       <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -12869,28 +12869,28 @@
       <c r="I45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" t="s">
-        <v>132</v>
+      <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" t="s">
         <v>90</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -12920,19 +12920,19 @@
       <c r="Z45" t="s">
         <v>132</v>
       </c>
-      <c r="AA45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB45" t="s">
+      <c r="AA45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC45" t="s">
         <v>91</v>
       </c>
-      <c r="AD45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE45" t="s">
+      <c r="AD45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF45" t="s">
@@ -12944,10 +12944,10 @@
       <c r="AH45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI45" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ45" t="s">
+      <c r="AI45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK45" t="s">
@@ -13108,7 +13108,7 @@
       <c r="D46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>88</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -13123,28 +13123,28 @@
       <c r="I46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J46" t="s">
-        <v>132</v>
-      </c>
-      <c r="K46" t="s">
-        <v>132</v>
+      <c r="J46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" t="s">
         <v>90</v>
       </c>
       <c r="R46" s="1" t="s">
@@ -13174,19 +13174,19 @@
       <c r="Z46" t="s">
         <v>132</v>
       </c>
-      <c r="AA46" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB46" t="s">
+      <c r="AA46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC46" t="s">
         <v>91</v>
       </c>
-      <c r="AD46" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE46" t="s">
+      <c r="AD46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF46" t="s">
@@ -13198,10 +13198,10 @@
       <c r="AH46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI46" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ46" t="s">
+      <c r="AI46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK46" t="s">
@@ -13362,7 +13362,7 @@
       <c r="D47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>88</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -13377,22 +13377,22 @@
       <c r="I47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J47" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" t="s">
-        <v>132</v>
+      <c r="J47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -13416,7 +13416,7 @@
       <c r="V47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X47" t="s">
@@ -13428,19 +13428,19 @@
       <c r="Z47" t="s">
         <v>132</v>
       </c>
-      <c r="AA47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="AA47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC47" t="s">
         <v>91</v>
       </c>
-      <c r="AD47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AD47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF47" t="s">
@@ -13452,13 +13452,13 @@
       <c r="AH47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK47" t="s">
+      <c r="AI47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL47" s="1" t="s">
@@ -13616,7 +13616,7 @@
       <c r="D48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -13631,22 +13631,22 @@
       <c r="I48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J48" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" t="s">
-        <v>132</v>
+      <c r="J48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -13670,7 +13670,7 @@
       <c r="V48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X48" t="s">
@@ -13682,19 +13682,19 @@
       <c r="Z48" t="s">
         <v>132</v>
       </c>
-      <c r="AA48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB48" t="s">
+      <c r="AA48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC48" t="s">
         <v>91</v>
       </c>
-      <c r="AD48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE48" t="s">
+      <c r="AD48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF48" t="s">
@@ -13706,13 +13706,13 @@
       <c r="AH48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK48" t="s">
+      <c r="AI48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL48" s="1" t="s">
@@ -13870,7 +13870,7 @@
       <c r="D49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>88</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -13885,28 +13885,28 @@
       <c r="I49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J49" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>132</v>
+      <c r="J49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="Q49" t="s">
         <v>90</v>
       </c>
       <c r="R49" s="1" t="s">
@@ -13936,19 +13936,19 @@
       <c r="Z49" t="s">
         <v>132</v>
       </c>
-      <c r="AA49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="AA49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC49" t="s">
         <v>91</v>
       </c>
-      <c r="AD49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE49" t="s">
+      <c r="AD49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AF49" t="s">
@@ -13960,10 +13960,10 @@
       <c r="AH49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ49" t="s">
+      <c r="AI49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK49" t="s">

--- a/data_availability/all_status.xlsx
+++ b/data_availability/all_status.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Current Availability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Availability as of 2019-02-14" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
@@ -2207,7 +2207,7 @@
       <c r="K3" t="s">
         <v>89</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2234,7 +2234,7 @@
       <c r="T3" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -2279,7 +2279,7 @@
       <c r="AI3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK3" t="s">
@@ -2766,7 +2766,7 @@
       <c r="AB5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD5" t="s">
@@ -2957,10 +2957,10 @@
       <c r="G6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J6" t="s">
@@ -2969,10 +2969,10 @@
       <c r="K6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N6" t="s">
@@ -2996,10 +2996,10 @@
       <c r="T6" t="s">
         <v>89</v>
       </c>
-      <c r="U6" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="U6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W6" t="s">
@@ -3041,7 +3041,7 @@
       <c r="AI6" t="s">
         <v>87</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK6" t="s">
@@ -3504,7 +3504,7 @@
       <c r="T8" t="s">
         <v>89</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -3549,7 +3549,7 @@
       <c r="AI8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK8" s="1" t="s">
@@ -4484,7 +4484,7 @@
       <c r="H12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J12" t="s">
@@ -4502,7 +4502,7 @@
       <c r="N12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P12" t="s">
@@ -4523,7 +4523,7 @@
       <c r="U12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -4565,7 +4565,7 @@
       <c r="AI12" t="s">
         <v>87</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK12" s="1" t="s">
@@ -4723,10 +4723,10 @@
       <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4735,10 +4735,10 @@
       <c r="G13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J13" t="s">
@@ -4756,7 +4756,7 @@
       <c r="N13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P13" t="s">
@@ -4777,7 +4777,7 @@
       <c r="U13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -4804,7 +4804,7 @@
       <c r="AD13" t="s">
         <v>89</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AF13" t="s">
@@ -4819,7 +4819,7 @@
       <c r="AI13" t="s">
         <v>87</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK13" s="1" t="s">
@@ -4989,10 +4989,10 @@
       <c r="G14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J14" t="s">
@@ -5001,10 +5001,10 @@
       <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="L14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N14" t="s">
@@ -5028,10 +5028,10 @@
       <c r="T14" t="s">
         <v>89</v>
       </c>
-      <c r="U14" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="U14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W14" t="s">
@@ -5073,7 +5073,7 @@
       <c r="AI14" t="s">
         <v>87</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK14" t="s">
@@ -5327,7 +5327,7 @@
       <c r="AI15" t="s">
         <v>87</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK15" t="s">
@@ -6005,7 +6005,7 @@
       <c r="G18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -6017,10 +6017,10 @@
       <c r="K18" t="s">
         <v>89</v>
       </c>
-      <c r="L18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -6044,7 +6044,7 @@
       <c r="T18" t="s">
         <v>89</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -6068,13 +6068,13 @@
       <c r="AB18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AD18" t="s">
         <v>89</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AF18" s="1" t="s">
@@ -6089,10 +6089,10 @@
       <c r="AI18" t="s">
         <v>87</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="AJ18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AL18" t="s">
@@ -16981,7 +16981,7 @@
       <c r="Y61" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Z61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AA61" s="1" t="s">
@@ -17002,7 +17002,7 @@
       <c r="AF61" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AG61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH61" t="s">
@@ -21828,7 +21828,7 @@
       <c r="AF80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AG80" t="s">
+      <c r="AG80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH80" t="s">
@@ -23600,7 +23600,7 @@
       <c r="AD87" t="s">
         <v>89</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AE87" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AF87" s="1" t="s">
@@ -24631,7 +24631,7 @@
       <c r="AI91" t="s">
         <v>91</v>
       </c>
-      <c r="AJ91" t="s">
+      <c r="AJ91" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AK91" t="s">
@@ -24849,7 +24849,7 @@
       <c r="W92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X92" t="s">
+      <c r="X92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="Y92" t="s">
@@ -24921,7 +24921,7 @@
       <c r="AU92" t="s">
         <v>132</v>
       </c>
-      <c r="AV92" t="s">
+      <c r="AV92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AW92" t="s">
@@ -25005,7 +25005,7 @@
       <c r="BW92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BX92" t="s">
+      <c r="BX92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BY92" t="s">
@@ -28453,7 +28453,7 @@
       <c r="AM106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN106" t="s">
+      <c r="AN106" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AO106" t="s">
@@ -28531,7 +28531,7 @@
       <c r="BM106" t="s">
         <v>87</v>
       </c>
-      <c r="BN106" t="s">
+      <c r="BN106" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BO106" t="s">
@@ -28576,7 +28576,7 @@
       <c r="CB106" t="s">
         <v>87</v>
       </c>
-      <c r="CC106" t="s">
+      <c r="CC106" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CD106" t="s">
@@ -33109,7 +33109,7 @@
       <c r="BO124" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BP124" t="s">
+      <c r="BP124" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BQ124" s="1" t="s">
@@ -33805,7 +33805,7 @@
       <c r="AS127" t="s">
         <v>91</v>
       </c>
-      <c r="AT127" t="s">
+      <c r="AT127" s="1" t="s">
         <v>251</v>
       </c>
       <c r="AU127" t="s">
@@ -33913,7 +33913,7 @@
       <c r="CC127" t="s">
         <v>132</v>
       </c>
-      <c r="CD127" t="s">
+      <c r="CD127" s="1" t="s">
         <v>89</v>
       </c>
       <c r="CE127" t="s">
@@ -35873,7 +35873,7 @@
       <c r="BE135" t="s">
         <v>91</v>
       </c>
-      <c r="BF135" t="s">
+      <c r="BF135" s="1" t="s">
         <v>89</v>
       </c>
       <c r="BG135" s="1" t="s">
@@ -36641,7 +36641,7 @@
       <c r="BG138" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BH138" t="s">
+      <c r="BH138" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BI138" t="s">
